--- a/new-stats/sport-boys.xlsx
+++ b/new-stats/sport-boys.xlsx
@@ -1038,22 +1038,62 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>27/04/2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Grau</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Sport Boys</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="M11" t="n">
+        <v>8</v>
+      </c>
+      <c r="N11" t="n">
+        <v>13</v>
+      </c>
+      <c r="O11" t="n">
+        <v>3</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>

--- a/new-stats/sport-boys.xlsx
+++ b/new-stats/sport-boys.xlsx
@@ -1096,22 +1096,62 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>04/05/2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Sport Boys</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Alianza Huanuco</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="M12" t="n">
+        <v>13</v>
+      </c>
+      <c r="N12" t="n">
+        <v>15</v>
+      </c>
+      <c r="O12" t="n">
+        <v>8</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>

--- a/new-stats/sport-boys.xlsx
+++ b/new-stats/sport-boys.xlsx
@@ -1154,22 +1154,62 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Huancayo</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Sport Boys</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="M13" t="n">
+        <v>8</v>
+      </c>
+      <c r="N13" t="n">
+        <v>27</v>
+      </c>
+      <c r="O13" t="n">
+        <v>4</v>
+      </c>
+      <c r="P13" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>

--- a/new-stats/sport-boys.xlsx
+++ b/new-stats/sport-boys.xlsx
@@ -1212,22 +1212,62 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Sport Boys</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>A. Lima</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M14" t="n">
+        <v>6</v>
+      </c>
+      <c r="N14" t="n">
+        <v>21</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>

--- a/new-stats/sport-boys.xlsx
+++ b/new-stats/sport-boys.xlsx
@@ -1270,22 +1270,62 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14/06/2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Melgar</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Sport Boys</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>16</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2</v>
+      </c>
+      <c r="P15" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>

--- a/new-stats/sport-boys.xlsx
+++ b/new-stats/sport-boys.xlsx
@@ -1328,22 +1328,62 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>22/06/2025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Sport Boys</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Binacional</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="M16" t="n">
+        <v>12</v>
+      </c>
+      <c r="N16" t="n">
+        <v>9</v>
+      </c>
+      <c r="O16" t="n">
+        <v>7</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>

--- a/new-stats/sport-boys.xlsx
+++ b/new-stats/sport-boys.xlsx
@@ -1386,40 +1386,120 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>28/06/2025</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Cajamarca</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Sport Boys</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M17" t="n">
+        <v>10</v>
+      </c>
+      <c r="N17" t="n">
+        <v>15</v>
+      </c>
+      <c r="O17" t="n">
+        <v>4</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>06/07/2025</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Sport Boys</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Cusco</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="M18" t="n">
+        <v>7</v>
+      </c>
+      <c r="N18" t="n">
+        <v>5</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>

--- a/new-stats/sport-boys.xlsx
+++ b/new-stats/sport-boys.xlsx
@@ -1502,40 +1502,120 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>12/07/2025</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Alianza Atl.</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Sport Boys</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>26</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>20/07/2025</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Juan Pablo II</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Sport Boys</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M20" t="n">
+        <v>13</v>
+      </c>
+      <c r="N20" t="n">
+        <v>10</v>
+      </c>
+      <c r="O20" t="n">
+        <v>3</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>

--- a/new-stats/sport-boys.xlsx
+++ b/new-stats/sport-boys.xlsx
@@ -1618,22 +1618,62 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>26/07/2025</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Sport Boys</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Sporting Cristal</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M21" t="n">
+        <v>17</v>
+      </c>
+      <c r="N21" t="n">
+        <v>13</v>
+      </c>
+      <c r="O21" t="n">
+        <v>6</v>
+      </c>
+      <c r="P21" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr"/>

--- a/new-stats/sport-boys.xlsx
+++ b/new-stats/sport-boys.xlsx
@@ -1676,40 +1676,120 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>30/07/2025</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Ayacucho</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Sport Boys</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="n">
+        <v>10</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>04/08/2025</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Sport Boys</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>AD Tarma</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M23" t="n">
+        <v>14</v>
+      </c>
+      <c r="N23" t="n">
+        <v>11</v>
+      </c>
+      <c r="O23" t="n">
+        <v>5</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>

--- a/new-stats/sport-boys.xlsx
+++ b/new-stats/sport-boys.xlsx
@@ -1792,22 +1792,62 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>10/08/2025</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>U. de Deportes</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Sport Boys</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M24" t="n">
+        <v>8</v>
+      </c>
+      <c r="N24" t="n">
+        <v>21</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2</v>
+      </c>
+      <c r="P24" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>

--- a/new-stats/sport-boys.xlsx
+++ b/new-stats/sport-boys.xlsx
@@ -1850,22 +1850,62 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>16/08/2025</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Sport Boys</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Deportivo Garcilaso</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="M25" t="n">
+        <v>17</v>
+      </c>
+      <c r="N25" t="n">
+        <v>10</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>

--- a/new-stats/sport-boys.xlsx
+++ b/new-stats/sport-boys.xlsx
@@ -1908,22 +1908,62 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>23/08/2025</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Los Chankas</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Sport Boys</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M26" t="n">
+        <v>11</v>
+      </c>
+      <c r="N26" t="n">
+        <v>12</v>
+      </c>
+      <c r="O26" t="n">
+        <v>2</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr"/>

--- a/new-stats/sport-boys.xlsx
+++ b/new-stats/sport-boys.xlsx
@@ -1966,22 +1966,62 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>13/09/2025</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Sport Boys</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Comerciantes Unidos</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="M27" t="n">
+        <v>18</v>
+      </c>
+      <c r="N27" t="n">
+        <v>5</v>
+      </c>
+      <c r="O27" t="n">
+        <v>2</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>

--- a/new-stats/sport-boys.xlsx
+++ b/new-stats/sport-boys.xlsx
@@ -2024,22 +2024,62 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>18/09/2025</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Cienciano</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Sport Boys</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="n">
+        <v>17</v>
+      </c>
+      <c r="O28" t="n">
+        <v>4</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>

--- a/new-stats/sport-boys.xlsx
+++ b/new-stats/sport-boys.xlsx
@@ -2082,22 +2082,62 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>23/09/2025</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Sport Boys</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Grau</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="M29" t="n">
+        <v>12</v>
+      </c>
+      <c r="N29" t="n">
+        <v>9</v>
+      </c>
+      <c r="O29" t="n">
+        <v>8</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>

--- a/new-stats/sport-boys.xlsx
+++ b/new-stats/sport-boys.xlsx
@@ -2140,22 +2140,62 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>26/09/2025</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Alianza Huanuco</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>2</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Sport Boys</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>2</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="L30" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="M30" t="n">
+        <v>11</v>
+      </c>
+      <c r="N30" t="n">
+        <v>23</v>
+      </c>
+      <c r="O30" t="n">
+        <v>4</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>

--- a/new-stats/sport-boys.xlsx
+++ b/new-stats/sport-boys.xlsx
@@ -2198,22 +2198,62 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>05/10/2025</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Sport Boys</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>2</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Huancayo</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="M31" t="n">
+        <v>11</v>
+      </c>
+      <c r="N31" t="n">
+        <v>16</v>
+      </c>
+      <c r="O31" t="n">
+        <v>4</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr"/>

--- a/new-stats/sport-boys.xlsx
+++ b/new-stats/sport-boys.xlsx
@@ -2256,40 +2256,120 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>17/10/2025</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>A. Lima</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>3</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Sport Boys</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="L32" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="n">
+        <v>28</v>
+      </c>
+      <c r="O32" t="n">
+        <v>2</v>
+      </c>
+      <c r="P32" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>21/10/2025</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Sport Boys</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Melgar</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="M33" t="n">
+        <v>13</v>
+      </c>
+      <c r="N33" t="n">
+        <v>17</v>
+      </c>
+      <c r="O33" t="n">
+        <v>5</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>

--- a/new-stats/sport-boys.xlsx
+++ b/new-stats/sport-boys.xlsx
@@ -2372,22 +2372,62 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr"/>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>02/11/2025</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Sport Boys</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>2</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Cajamarca</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>2</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="M34" t="n">
+        <v>10</v>
+      </c>
+      <c r="N34" t="n">
+        <v>5</v>
+      </c>
+      <c r="O34" t="n">
+        <v>4</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>

--- a/new-stats/sport-boys.xlsx
+++ b/new-stats/sport-boys.xlsx
@@ -2430,22 +2430,62 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>07/11/2025</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Cusco</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>3</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Sport Boys</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M35" t="n">
+        <v>8</v>
+      </c>
+      <c r="N35" t="n">
+        <v>16</v>
+      </c>
+      <c r="O35" t="n">
+        <v>3</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>

--- a/new-stats/sport-boys.xlsx
+++ b/new-stats/sport-boys.xlsx
@@ -2488,22 +2488,62 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr"/>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Sport Boys</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Alianza Atl.</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M36" t="n">
+        <v>14</v>
+      </c>
+      <c r="N36" t="n">
+        <v>16</v>
+      </c>
+      <c r="O36" t="n">
+        <v>2</v>
+      </c>
+      <c r="P36" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr"/>

--- a/new-stats/sport-boys.xlsx
+++ b/new-stats/sport-boys.xlsx
@@ -574,22 +574,62 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>07/02/2026</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AD Tarma</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Sport Boys</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M3" t="n">
+        <v>12</v>
+      </c>
+      <c r="N3" t="n">
+        <v>18</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P3" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>

--- a/new-stats/sport-boys.xlsx
+++ b/new-stats/sport-boys.xlsx
@@ -632,22 +632,62 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>14/02/2026</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sport Boys</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Grau</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M4" t="n">
+        <v>14</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8</v>
+      </c>
+      <c r="O4" t="n">
+        <v>4</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
